--- a/result/gr25_08_simulated/details.xlsx
+++ b/result/gr25_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.202427864074707</v>
+        <v>0.2600345611572266</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>90.37611132151505</v>
+        <v>92.32123641794169</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003694899193142687</v>
+        <v>0.003757337172971522</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002789341763440262</v>
+        <v>0.002938912155312964</v>
       </c>
       <c r="H2" t="n">
-        <v>0.00269765102627231</v>
+        <v>0.002563019735842009</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002403499876106676</v>
+        <v>0.002556876524694315</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002403499876106676</v>
+        <v>0.002467525098318024</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002113654545960902</v>
+        <v>0.002429754410296352</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002113654545960902</v>
+        <v>0.002193355671268605</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002113654545960902</v>
+        <v>0.002166346550085777</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002080959703689338</v>
+        <v>0.002075890163776998</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002080959703689338</v>
+        <v>0.002075890163776998</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001950135852364529</v>
+        <v>0.00204430077160284</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001901070176510246</v>
+        <v>0.00204430077160284</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001901070176510246</v>
+        <v>0.001879124199714181</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001819827337899998</v>
+        <v>0.001879124199714181</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001801621689890339</v>
+        <v>0.001879124199714181</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001801621689890339</v>
+        <v>0.001879124199714181</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001801621689890339</v>
+        <v>0.001879124199714181</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001801621689890339</v>
+        <v>0.001834861700174168</v>
       </c>
       <c r="X2" t="n">
-        <v>0.00177625207551495</v>
+        <v>0.001811552753176238</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001761717569620176</v>
+        <v>0.001799634238166504</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2390816211700439</v>
+        <v>0.2319471836090088</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>85.98435053206777</v>
+        <v>94.10179021009753</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003730640584913683</v>
+        <v>0.003757337172971522</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002876072445661444</v>
+        <v>0.00300435408836291</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002651306453499415</v>
+        <v>0.002929127969900113</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002532894522560189</v>
+        <v>0.002475309503425576</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002260673770423748</v>
+        <v>0.002448835996969612</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002248547756862996</v>
+        <v>0.002210805743746385</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002115141070802951</v>
+        <v>0.002101490780628188</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002058527845767624</v>
+        <v>0.002101490780628188</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001943743140881634</v>
+        <v>0.00199639128112805</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001855353924986781</v>
+        <v>0.001980608108248335</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001855353924986781</v>
+        <v>0.001980608108248335</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001807388939212944</v>
+        <v>0.001980608108248335</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001801950460972329</v>
+        <v>0.001980608108248335</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001793666934157295</v>
+        <v>0.001935560224642048</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001769660626818591</v>
+        <v>0.001892956354633646</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001751151589217232</v>
+        <v>0.001892956354633646</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001724926131693834</v>
+        <v>0.001877605169704809</v>
       </c>
       <c r="W3" t="n">
-        <v>0.00170218236539865</v>
+        <v>0.001859615969279884</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001682860732884609</v>
+        <v>0.001834342889085722</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001676108197506194</v>
+        <v>0.001834342889085722</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.288341760635376</v>
+        <v>0.2222318649291992</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>96.53379503963879</v>
+        <v>93.56065908049823</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003757337172971522</v>
+        <v>0.003468199983191212</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002866816541716059</v>
+        <v>0.002873950838637925</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002866816541716059</v>
+        <v>0.002703252195435417</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002566169207983614</v>
+        <v>0.00253146159266655</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002229869082276853</v>
+        <v>0.002453902374972207</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002229869082276853</v>
+        <v>0.002237395407583961</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002229869082276853</v>
+        <v>0.002237395407583961</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002229869082276853</v>
+        <v>0.002105108836197875</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002199176686978129</v>
+        <v>0.002062667900228055</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002137243708392467</v>
+        <v>0.002062667900228055</v>
       </c>
       <c r="P4" t="n">
-        <v>0.002052011731124274</v>
+        <v>0.001960094144735697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002052011731124274</v>
+        <v>0.00195714878499223</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001992902039654717</v>
+        <v>0.001913328637333817</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001974049318561587</v>
+        <v>0.001910482265665615</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001971710395456279</v>
+        <v>0.001892134270515652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001932200514245771</v>
+        <v>0.001892134270515652</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001915284044424087</v>
+        <v>0.001873776959767775</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001900521540168621</v>
+        <v>0.001845402509456848</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001900521540168621</v>
+        <v>0.001838388140349565</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001881750390636233</v>
+        <v>0.00182379452398632</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2436237335205078</v>
+        <v>0.2114667892456055</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>90.31680580096872</v>
+        <v>92.85271622000255</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003452972009123065</v>
+        <v>0.003757337172971522</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002923058274495186</v>
+        <v>0.002907773767802515</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002596908249851354</v>
+        <v>0.00275645264018522</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002343514607846</v>
+        <v>0.002519862808729168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002342813431367683</v>
+        <v>0.002263607809034166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002342813431367683</v>
+        <v>0.002207013663649165</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002182642314712094</v>
+        <v>0.002168499731804785</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00212868895600489</v>
+        <v>0.001995674515961284</v>
       </c>
       <c r="N5" t="n">
-        <v>0.002047050023098584</v>
+        <v>0.001995674515961284</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002047050023098584</v>
+        <v>0.001995674515961284</v>
       </c>
       <c r="P5" t="n">
-        <v>0.002005004246303679</v>
+        <v>0.001995674515961284</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002005004246303679</v>
+        <v>0.001988859831540857</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001929483275462526</v>
+        <v>0.001950726211998344</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001929483275462526</v>
+        <v>0.001932168180179115</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001897641575686927</v>
+        <v>0.001916603307719151</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001870359021906576</v>
+        <v>0.001916603307719151</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001813802855905809</v>
+        <v>0.001886347806190123</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001813802855905809</v>
+        <v>0.001845638826943096</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001799737108842492</v>
+        <v>0.001810904081250296</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001760561516588084</v>
+        <v>0.00180999446822617</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2341299057006836</v>
+        <v>0.2207469940185547</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>97.62485464949714</v>
+        <v>95.00142985280218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003604527611508364</v>
+        <v>0.003626117340231359</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003092814689426644</v>
+        <v>0.002941968445532599</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002781345643515873</v>
+        <v>0.002480681334198425</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002612890867228423</v>
+        <v>0.002480681334198425</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00250502569663374</v>
+        <v>0.002382963304980716</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002335399287795937</v>
+        <v>0.002308582547353814</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00223561641434511</v>
+        <v>0.002242529045694349</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00209472700690542</v>
+        <v>0.002242529045694349</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00209472700690542</v>
+        <v>0.002122802250367839</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002080285845584948</v>
+        <v>0.002048204246051749</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002004272771913566</v>
+        <v>0.002040680870745346</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001987666735116235</v>
+        <v>0.001997850410463999</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001987666735116235</v>
+        <v>0.001997850410463999</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001958621089985636</v>
+        <v>0.001925365160903658</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001958621089985636</v>
+        <v>0.001925365160903658</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001954327946207458</v>
+        <v>0.001925365160903658</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001935569915873755</v>
+        <v>0.001877031183387471</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001920950632103736</v>
+        <v>0.001866983752396668</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001915431101174992</v>
+        <v>0.001864732699654495</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001903018609151991</v>
+        <v>0.001851879724226163</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3557977676391602</v>
+        <v>0.2109410762786865</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>92.99800314217282</v>
+        <v>97.39537783203195</v>
       </c>
       <c r="F7" t="n">
         <v>0.003757337172971522</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002734303379163702</v>
+        <v>0.002842662240405421</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002491721326407545</v>
+        <v>0.002590884455268118</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002491721326407545</v>
+        <v>0.002570799048397084</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002302964237409093</v>
+        <v>0.002421251962234598</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002302964237409093</v>
+        <v>0.002326692770400921</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00201595265142879</v>
+        <v>0.002073176551154023</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00201595265142879</v>
+        <v>0.002073176551154023</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002015696385162165</v>
+        <v>0.002073176551154023</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002015696385162165</v>
+        <v>0.002073176551154023</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0019751810204632</v>
+        <v>0.002004578295734327</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0019751810204632</v>
+        <v>0.002004578295734327</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0019751810204632</v>
+        <v>0.002004578295734327</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001957075616005825</v>
+        <v>0.002004578295734327</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001906466239826316</v>
+        <v>0.001999382805630485</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001889800026453164</v>
+        <v>0.001999382805630485</v>
       </c>
       <c r="V7" t="n">
-        <v>0.001875611964294532</v>
+        <v>0.00198616754964539</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001836559944189481</v>
+        <v>0.001938230577194991</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001826311490538423</v>
+        <v>0.001912721410545843</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001812826571972179</v>
+        <v>0.001898545376842728</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2799925804138184</v>
+        <v>0.2369227409362793</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>87.80675710071046</v>
+        <v>94.43850981941432</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003699227815645799</v>
+        <v>0.003700162937976026</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002945743574125576</v>
+        <v>0.003009598797477282</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002794751596349605</v>
+        <v>0.002646269374357229</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002457896738631046</v>
+        <v>0.002552568549647183</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00227636812894163</v>
+        <v>0.00244199668874411</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002062015241101274</v>
+        <v>0.002381499876536922</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002062015241101274</v>
+        <v>0.002381499876536922</v>
       </c>
       <c r="M8" t="n">
-        <v>0.001989881281727163</v>
+        <v>0.002348030297378829</v>
       </c>
       <c r="N8" t="n">
-        <v>0.001950271711609912</v>
+        <v>0.002281638363969264</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001950271711609912</v>
+        <v>0.002263781616278699</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001840818955233364</v>
+        <v>0.002238783968251937</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.001840818955233364</v>
+        <v>0.002116550579053741</v>
       </c>
       <c r="R8" t="n">
-        <v>0.001840818955233364</v>
+        <v>0.002006542688852196</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001808444388146857</v>
+        <v>0.001950845564374991</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001808444388146857</v>
+        <v>0.00194626803090169</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001808444388146857</v>
+        <v>0.001909999530603192</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001776361012942334</v>
+        <v>0.001857911206957919</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001749459210924209</v>
+        <v>0.001857911206957919</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001722521714449183</v>
+        <v>0.001847654058312319</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001711632692021646</v>
+        <v>0.001840906624160123</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2169950008392334</v>
+        <v>0.2717306613922119</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>88.95819287766608</v>
+        <v>91.59437300454374</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003611855768196395</v>
+        <v>0.003757337172971522</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00311790866585385</v>
+        <v>0.003001218712700802</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002584266547712944</v>
+        <v>0.002907999265922204</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002584266547712944</v>
+        <v>0.002496850785575897</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002345346173674345</v>
+        <v>0.002313348660119449</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002133189037384808</v>
+        <v>0.002313348660119449</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002133189037384808</v>
+        <v>0.002313348660119449</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002133189037384808</v>
+        <v>0.002198293861550369</v>
       </c>
       <c r="N9" t="n">
-        <v>0.001973158133218797</v>
+        <v>0.002084392455973664</v>
       </c>
       <c r="O9" t="n">
-        <v>0.001973158133218797</v>
+        <v>0.002042702684759833</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001973158133218797</v>
+        <v>0.001940469004323559</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001919991164318171</v>
+        <v>0.001894629648086088</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001897410182820934</v>
+        <v>0.001894629648086088</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001881042703653842</v>
+        <v>0.001867621639977022</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001846875044046891</v>
+        <v>0.001824675259167616</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001846875044046891</v>
+        <v>0.001824675259167616</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001810111139204937</v>
+        <v>0.001824675259167616</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001787548818655209</v>
+        <v>0.001802788024790352</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001770961080722073</v>
+        <v>0.001787784331931919</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001734077833872633</v>
+        <v>0.001785465360712353</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2249934673309326</v>
+        <v>0.3041648864746094</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>89.63348652328023</v>
+        <v>97.24944864968529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003669193040506024</v>
+        <v>0.003660312753857895</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003098400249897702</v>
+        <v>0.003041080166472455</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002545216736845376</v>
+        <v>0.002764988425102703</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002370416444574592</v>
+        <v>0.002383870006744072</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002370416444574592</v>
+        <v>0.002383870006744072</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002195022547407878</v>
+        <v>0.002139053313738748</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002190871850280142</v>
+        <v>0.002139053313738748</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0021739831319394</v>
+        <v>0.002118432442789481</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00207248864686466</v>
+        <v>0.002039869460326829</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002061231423700859</v>
+        <v>0.002039869460326829</v>
       </c>
       <c r="P10" t="n">
-        <v>0.001910162177082455</v>
+        <v>0.002039869460326829</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001856866694265564</v>
+        <v>0.002022814060199</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001856866694265564</v>
+        <v>0.001971363524149658</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001856866694265564</v>
+        <v>0.001971363524149658</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001856866694265564</v>
+        <v>0.001971363524149658</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001832178526184334</v>
+        <v>0.001971363524149658</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001797983153804925</v>
+        <v>0.001945630741105822</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001762032318084452</v>
+        <v>0.001908769368766341</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001756999528953604</v>
+        <v>0.001908769368766341</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001747241452695521</v>
+        <v>0.001895700753405171</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2136754989624023</v>
+        <v>0.2020366191864014</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>91.12674124856312</v>
+        <v>90.00817902700874</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003668815203942024</v>
+        <v>0.003669970315213592</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002847038788203663</v>
+        <v>0.002708987109506967</v>
       </c>
       <c r="H11" t="n">
-        <v>0.002696566069750019</v>
+        <v>0.00252902655463289</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002678003721683987</v>
+        <v>0.002462306971627018</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002352852465352206</v>
+        <v>0.002236275627551824</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002352852465352206</v>
+        <v>0.002179682682382871</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002263302279049478</v>
+        <v>0.002078025384390665</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002140221273670316</v>
+        <v>0.001946477616925514</v>
       </c>
       <c r="N11" t="n">
-        <v>0.002140221273670316</v>
+        <v>0.001946477616925514</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002044938700433867</v>
+        <v>0.001946477616925514</v>
       </c>
       <c r="P11" t="n">
-        <v>0.002031234339946285</v>
+        <v>0.001946477616925514</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001882982953996575</v>
+        <v>0.001946477616925514</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001882982953996575</v>
+        <v>0.001803422409534726</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001882982953996575</v>
+        <v>0.001803422409534726</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001834288365343983</v>
+        <v>0.001803422409534726</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001834288365343983</v>
+        <v>0.001803422409534726</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001822110271092901</v>
+        <v>0.001803422409534726</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001822110271092901</v>
+        <v>0.001758293220352383</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001790541688783564</v>
+        <v>0.001758293220352383</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001776349731940801</v>
+        <v>0.001754545400136622</v>
       </c>
     </row>
   </sheetData>

--- a/result/gr25_08_simulated/details.xlsx
+++ b/result/gr25_08_simulated/details.xlsx
@@ -570,73 +570,73 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2600345611572266</v>
+        <v>0.5060012340545654</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>92.32123641794169</v>
+        <v>64.20996992708933</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003757337172971522</v>
+        <v>0.002802168546845917</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002938912155312964</v>
+        <v>0.002157148952229234</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002563019735842009</v>
+        <v>0.001719094163776776</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002556876524694315</v>
+        <v>0.001719094163776776</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002467525098318024</v>
+        <v>0.001687400868910901</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002429754410296352</v>
+        <v>0.00162145840520339</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002193355671268605</v>
+        <v>0.001565151783079396</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002166346550085777</v>
+        <v>0.001565151783079396</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002075890163776998</v>
+        <v>0.001565151783079396</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002075890163776998</v>
+        <v>0.001565151783079396</v>
       </c>
       <c r="P2" t="n">
-        <v>0.00204430077160284</v>
+        <v>0.001565151783079396</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00204430077160284</v>
+        <v>0.001456809899573166</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001879124199714181</v>
+        <v>0.001387854942881566</v>
       </c>
       <c r="S2" t="n">
-        <v>0.001879124199714181</v>
+        <v>0.001387854942881566</v>
       </c>
       <c r="T2" t="n">
-        <v>0.001879124199714181</v>
+        <v>0.001387854942881566</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001879124199714181</v>
+        <v>0.001387854942881566</v>
       </c>
       <c r="V2" t="n">
-        <v>0.001879124199714181</v>
+        <v>0.001301779425264658</v>
       </c>
       <c r="W2" t="n">
-        <v>0.001834861700174168</v>
+        <v>0.001297807183691794</v>
       </c>
       <c r="X2" t="n">
-        <v>0.001811552753176238</v>
+        <v>0.0012530583131119</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.001799634238166504</v>
+        <v>0.00125165633386139</v>
       </c>
     </row>
     <row r="3">
@@ -649,73 +649,73 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2319471836090088</v>
+        <v>0.4659996032714844</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>94.10179021009753</v>
+        <v>64.13189597493874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003757337172971522</v>
+        <v>0.002698035534867245</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00300435408836291</v>
+        <v>0.002203862639851589</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002929127969900113</v>
+        <v>0.00200914947756402</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002475309503425576</v>
+        <v>0.00171310113755684</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002448835996969612</v>
+        <v>0.001695107453616733</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002210805743746385</v>
+        <v>0.001695107453616733</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002101490780628188</v>
+        <v>0.001501045378514589</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002101490780628188</v>
+        <v>0.001501045378514589</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00199639128112805</v>
+        <v>0.001501045378514589</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001980608108248335</v>
+        <v>0.001501045378514589</v>
       </c>
       <c r="P3" t="n">
-        <v>0.001980608108248335</v>
+        <v>0.001501045378514589</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.001980608108248335</v>
+        <v>0.001469831018379547</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001980608108248335</v>
+        <v>0.001403434284719813</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001935560224642048</v>
+        <v>0.001403434284719813</v>
       </c>
       <c r="T3" t="n">
-        <v>0.001892956354633646</v>
+        <v>0.001329261552975374</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001892956354633646</v>
+        <v>0.001329261552975374</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001877605169704809</v>
+        <v>0.001272008431711285</v>
       </c>
       <c r="W3" t="n">
-        <v>0.001859615969279884</v>
+        <v>0.001272008431711285</v>
       </c>
       <c r="X3" t="n">
-        <v>0.001834342889085722</v>
+        <v>0.001262441782013301</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.001834342889085722</v>
+        <v>0.001250134424462743</v>
       </c>
     </row>
     <row r="4">
@@ -728,73 +728,73 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2222318649291992</v>
+        <v>0.5129795074462891</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>93.56065908049823</v>
+        <v>61.24760024835268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003468199983191212</v>
+        <v>0.002802168546845917</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002873950838637925</v>
+        <v>0.002112673280831235</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002703252195435417</v>
+        <v>0.001927353959322397</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00253146159266655</v>
+        <v>0.001627564364483469</v>
       </c>
       <c r="J4" t="n">
-        <v>0.002453902374972207</v>
+        <v>0.001627564364483469</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002237395407583961</v>
+        <v>0.001627564364483469</v>
       </c>
       <c r="L4" t="n">
-        <v>0.002237395407583961</v>
+        <v>0.001627564364483469</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002105108836197875</v>
+        <v>0.001627564364483469</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002062667900228055</v>
+        <v>0.001528357097986461</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002062667900228055</v>
+        <v>0.001528357097986461</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001960094144735697</v>
+        <v>0.001460596993241226</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00195714878499223</v>
+        <v>0.001460596993241226</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001913328637333817</v>
+        <v>0.001460596993241226</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001910482265665615</v>
+        <v>0.001460596993241226</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001892134270515652</v>
+        <v>0.001414719050329521</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001892134270515652</v>
+        <v>0.001337199107350876</v>
       </c>
       <c r="V4" t="n">
-        <v>0.001873776959767775</v>
+        <v>0.001264494293320052</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001845402509456848</v>
+        <v>0.001237442819587953</v>
       </c>
       <c r="X4" t="n">
-        <v>0.001838388140349565</v>
+        <v>0.001236875086451654</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.00182379452398632</v>
+        <v>0.001193910336225198</v>
       </c>
     </row>
     <row r="5">
@@ -807,73 +807,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2114667892456055</v>
+        <v>0.4409940242767334</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>92.85271622000255</v>
+        <v>61.13960289489478</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003757337172971522</v>
+        <v>0.002650526418184921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002907773767802515</v>
+        <v>0.001894014601547838</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00275645264018522</v>
+        <v>0.001894014601547838</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002519862808729168</v>
+        <v>0.001783419154449043</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002263607809034166</v>
+        <v>0.001643909720741786</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002207013663649165</v>
+        <v>0.001643909720741786</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002168499731804785</v>
+        <v>0.001471486339506744</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001995674515961284</v>
+        <v>0.001457956071455598</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001995674515961284</v>
+        <v>0.001457956071455598</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001995674515961284</v>
+        <v>0.001416958038063035</v>
       </c>
       <c r="P5" t="n">
-        <v>0.001995674515961284</v>
+        <v>0.001416958038063035</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.001988859831540857</v>
+        <v>0.001416958038063035</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001950726211998344</v>
+        <v>0.001414877401923546</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001932168180179115</v>
+        <v>0.001314883772445941</v>
       </c>
       <c r="T5" t="n">
-        <v>0.001916603307719151</v>
+        <v>0.001314883772445941</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001916603307719151</v>
+        <v>0.001299811899019592</v>
       </c>
       <c r="V5" t="n">
-        <v>0.001886347806190123</v>
+        <v>0.001273602954688063</v>
       </c>
       <c r="W5" t="n">
-        <v>0.001845638826943096</v>
+        <v>0.001260809499500277</v>
       </c>
       <c r="X5" t="n">
-        <v>0.001810904081250296</v>
+        <v>0.001222034487734817</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.00180999446822617</v>
+        <v>0.001191805124656818</v>
       </c>
     </row>
     <row r="6">
@@ -886,73 +886,73 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2207469940185547</v>
+        <v>0.4530165195465088</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>95.00142985280218</v>
+        <v>66.1323445942744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003626117340231359</v>
+        <v>0.002802168546845917</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002941968445532599</v>
+        <v>0.002166852225781179</v>
       </c>
       <c r="H6" t="n">
-        <v>0.002480681334198425</v>
+        <v>0.001909331412663204</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002480681334198425</v>
+        <v>0.001909331412663204</v>
       </c>
       <c r="J6" t="n">
-        <v>0.002382963304980716</v>
+        <v>0.001733670217072961</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002308582547353814</v>
+        <v>0.001613736733779731</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002242529045694349</v>
+        <v>0.001613736733779731</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002242529045694349</v>
+        <v>0.001613254933269458</v>
       </c>
       <c r="N6" t="n">
-        <v>0.002122802250367839</v>
+        <v>0.001479785924456891</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002048204246051749</v>
+        <v>0.001479785924456891</v>
       </c>
       <c r="P6" t="n">
-        <v>0.002040680870745346</v>
+        <v>0.001405739925770969</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001997850410463999</v>
+        <v>0.001405739925770969</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001997850410463999</v>
+        <v>0.001405739925770969</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001925365160903658</v>
+        <v>0.001392315146607388</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001925365160903658</v>
+        <v>0.001392315146607388</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001925365160903658</v>
+        <v>0.00134690950750155</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001877031183387471</v>
+        <v>0.001346429404384962</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001866983752396668</v>
+        <v>0.00133061565597039</v>
       </c>
       <c r="X6" t="n">
-        <v>0.001864732699654495</v>
+        <v>0.001302039871463197</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001851879724226163</v>
+        <v>0.001289129524254861</v>
       </c>
     </row>
     <row r="7">
@@ -965,73 +965,73 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2109410762786865</v>
+        <v>0.4250056743621826</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>97.39537783203195</v>
+        <v>65.43603284732126</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003757337172971522</v>
+        <v>0.002678509318226792</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002842662240405421</v>
+        <v>0.002178762491041506</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002590884455268118</v>
+        <v>0.00198582904258473</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002570799048397084</v>
+        <v>0.001555915237822986</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002421251962234598</v>
+        <v>0.001555915237822986</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002326692770400921</v>
+        <v>0.001555915237822986</v>
       </c>
       <c r="L7" t="n">
-        <v>0.002073176551154023</v>
+        <v>0.001450042690053008</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002073176551154023</v>
+        <v>0.001450042690053008</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002073176551154023</v>
+        <v>0.001450042690053008</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002073176551154023</v>
+        <v>0.001450042690053008</v>
       </c>
       <c r="P7" t="n">
-        <v>0.002004578295734327</v>
+        <v>0.001442207344447255</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.002004578295734327</v>
+        <v>0.001442207344447255</v>
       </c>
       <c r="R7" t="n">
-        <v>0.002004578295734327</v>
+        <v>0.001399610632040571</v>
       </c>
       <c r="S7" t="n">
-        <v>0.002004578295734327</v>
+        <v>0.00136781320630331</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001999382805630485</v>
+        <v>0.00136781320630331</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001999382805630485</v>
+        <v>0.001324930495314097</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00198616754964539</v>
+        <v>0.001320007277455397</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001938230577194991</v>
+        <v>0.001309923887229816</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001912721410545843</v>
+        <v>0.001302147993507378</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.001898545376842728</v>
+        <v>0.001275556195854215</v>
       </c>
     </row>
     <row r="8">
@@ -1044,73 +1044,73 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2369227409362793</v>
+        <v>0.5200014114379883</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>94.43850981941432</v>
+        <v>65.86575805266693</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003700162937976026</v>
+        <v>0.002802168546845917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.003009598797477282</v>
+        <v>0.002040791962604629</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002646269374357229</v>
+        <v>0.001916254492822424</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002552568549647183</v>
+        <v>0.001916254492822424</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00244199668874411</v>
+        <v>0.001771217275595455</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002381499876536922</v>
+        <v>0.001693358759261187</v>
       </c>
       <c r="L8" t="n">
-        <v>0.002381499876536922</v>
+        <v>0.001629101600689632</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002348030297378829</v>
+        <v>0.001545920348642922</v>
       </c>
       <c r="N8" t="n">
-        <v>0.002281638363969264</v>
+        <v>0.001489518175222668</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002263781616278699</v>
+        <v>0.001489518175222668</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002238783968251937</v>
+        <v>0.001489518175222668</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.002116550579053741</v>
+        <v>0.001475399988666766</v>
       </c>
       <c r="R8" t="n">
-        <v>0.002006542688852196</v>
+        <v>0.001460519087179714</v>
       </c>
       <c r="S8" t="n">
-        <v>0.001950845564374991</v>
+        <v>0.001430583783935573</v>
       </c>
       <c r="T8" t="n">
-        <v>0.00194626803090169</v>
+        <v>0.001333906787174775</v>
       </c>
       <c r="U8" t="n">
-        <v>0.001909999530603192</v>
+        <v>0.001333906787174775</v>
       </c>
       <c r="V8" t="n">
-        <v>0.001857911206957919</v>
+        <v>0.001333906787174775</v>
       </c>
       <c r="W8" t="n">
-        <v>0.001857911206957919</v>
+        <v>0.001333906787174775</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001847654058312319</v>
+        <v>0.00131583305763215</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.001840906624160123</v>
+        <v>0.001283932905510076</v>
       </c>
     </row>
     <row r="9">
@@ -1123,73 +1123,73 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2717306613922119</v>
+        <v>0.5470051765441895</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>91.59437300454374</v>
+        <v>65.38283578494702</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003757337172971522</v>
+        <v>0.002725370669915938</v>
       </c>
       <c r="G9" t="n">
-        <v>0.003001218712700802</v>
+        <v>0.002179206211326354</v>
       </c>
       <c r="H9" t="n">
-        <v>0.002907999265922204</v>
+        <v>0.002179206211326354</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002496850785575897</v>
+        <v>0.001955369981386782</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002313348660119449</v>
+        <v>0.001924511131066474</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002313348660119449</v>
+        <v>0.001628018504854151</v>
       </c>
       <c r="L9" t="n">
-        <v>0.002313348660119449</v>
+        <v>0.001628018504854151</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002198293861550369</v>
+        <v>0.001566393947538783</v>
       </c>
       <c r="N9" t="n">
-        <v>0.002084392455973664</v>
+        <v>0.001566393947538783</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002042702684759833</v>
+        <v>0.001566393947538783</v>
       </c>
       <c r="P9" t="n">
-        <v>0.001940469004323559</v>
+        <v>0.001566393947538783</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.001894629648086088</v>
+        <v>0.001533139772623525</v>
       </c>
       <c r="R9" t="n">
-        <v>0.001894629648086088</v>
+        <v>0.001506055260192137</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001867621639977022</v>
+        <v>0.001471990766812026</v>
       </c>
       <c r="T9" t="n">
-        <v>0.001824675259167616</v>
+        <v>0.001419235968535583</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001824675259167616</v>
+        <v>0.001317910849410461</v>
       </c>
       <c r="V9" t="n">
-        <v>0.001824675259167616</v>
+        <v>0.001317910849410461</v>
       </c>
       <c r="W9" t="n">
-        <v>0.001802788024790352</v>
+        <v>0.001317910849410461</v>
       </c>
       <c r="X9" t="n">
-        <v>0.001787784331931919</v>
+        <v>0.001286714615537128</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.001785465360712353</v>
+        <v>0.001274519216080838</v>
       </c>
     </row>
     <row r="10">
@@ -1202,73 +1202,73 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3041648864746094</v>
+        <v>0.3749980926513672</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>97.24944864968529</v>
+        <v>65.61485763809469</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003660312753857895</v>
+        <v>0.00265060364302398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003041080166472455</v>
+        <v>0.002059624640169913</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002764988425102703</v>
+        <v>0.001999418176559129</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002383870006744072</v>
+        <v>0.00192062797526334</v>
       </c>
       <c r="J10" t="n">
-        <v>0.002383870006744072</v>
+        <v>0.00188209440512784</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002139053313738748</v>
+        <v>0.001748883530750535</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002139053313738748</v>
+        <v>0.001748883530750535</v>
       </c>
       <c r="M10" t="n">
-        <v>0.002118432442789481</v>
+        <v>0.001748883530750535</v>
       </c>
       <c r="N10" t="n">
-        <v>0.002039869460326829</v>
+        <v>0.001607995401862045</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002039869460326829</v>
+        <v>0.001607995401862045</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002039869460326829</v>
+        <v>0.001529518667908104</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.002022814060199</v>
+        <v>0.001497084287544091</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001971363524149658</v>
+        <v>0.001492610363864472</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001971363524149658</v>
+        <v>0.001492610363864472</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001971363524149658</v>
+        <v>0.001492610363864472</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001971363524149658</v>
+        <v>0.00138319429027825</v>
       </c>
       <c r="V10" t="n">
-        <v>0.001945630741105822</v>
+        <v>0.001355462137624548</v>
       </c>
       <c r="W10" t="n">
-        <v>0.001908769368766341</v>
+        <v>0.001283106155628629</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001908769368766341</v>
+        <v>0.001283106155628629</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001895700753405171</v>
+        <v>0.001279042059222119</v>
       </c>
     </row>
     <row r="11">
@@ -1281,73 +1281,73 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2020366191864014</v>
+        <v>0.5160002708435059</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>90.00817902700874</v>
+        <v>59.26464663557272</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003669970315213592</v>
+        <v>0.002636749212885127</v>
       </c>
       <c r="G11" t="n">
-        <v>0.002708987109506967</v>
+        <v>0.002094206362705653</v>
       </c>
       <c r="H11" t="n">
-        <v>0.00252902655463289</v>
+        <v>0.001873219184030335</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002462306971627018</v>
+        <v>0.0017397940553542</v>
       </c>
       <c r="J11" t="n">
-        <v>0.002236275627551824</v>
+        <v>0.0017397940553542</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002179682682382871</v>
+        <v>0.001685824201066596</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002078025384390665</v>
+        <v>0.001643997036654718</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001946477616925514</v>
+        <v>0.00159137796740515</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001946477616925514</v>
+        <v>0.00159102006046732</v>
       </c>
       <c r="O11" t="n">
-        <v>0.001946477616925514</v>
+        <v>0.001445786531311485</v>
       </c>
       <c r="P11" t="n">
-        <v>0.001946477616925514</v>
+        <v>0.001445786531311485</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.001946477616925514</v>
+        <v>0.001445786531311485</v>
       </c>
       <c r="R11" t="n">
-        <v>0.001803422409534726</v>
+        <v>0.001309182996588277</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001803422409534726</v>
+        <v>0.001267543790593895</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001803422409534726</v>
+        <v>0.001256674819880473</v>
       </c>
       <c r="U11" t="n">
-        <v>0.001803422409534726</v>
+        <v>0.001232935480015671</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001803422409534726</v>
+        <v>0.001214417968243985</v>
       </c>
       <c r="W11" t="n">
-        <v>0.001758293220352383</v>
+        <v>0.001214417968243985</v>
       </c>
       <c r="X11" t="n">
-        <v>0.001758293220352383</v>
+        <v>0.001176545416178536</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001754545400136622</v>
+        <v>0.001155256269699273</v>
       </c>
     </row>
   </sheetData>
